--- a/Person/赵一鸣/食物热量识别.xlsx
+++ b/Person/赵一鸣/食物热量识别.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dasanshang\软件工程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\360MoveData\Users\logic\Desktop\Repository\Person\赵一鸣\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B3A240-5BEE-458C-B5FA-DAC8D339F4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE281D5-E2BE-4313-B7A8-B100944531EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>标题</t>
   </si>
@@ -124,6 +124,78 @@
   <si>
     <t>检测饭菜成分</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐视频搭配</t>
+  </si>
+  <si>
+    <t>作为一名大年龄的用户，对于食物特定的需求需要得到特定的满足。</t>
+  </si>
+  <si>
+    <t>食物推荐</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望看到一些关于健康食物的推荐，以便于提高我的饮食生活质量。</t>
+  </si>
+  <si>
+    <t>食物小知识</t>
+  </si>
+  <si>
+    <t>作为一名家庭主妇，我希望在家多能了解一些做菜小知识，以便得到更丰富的营养知识。</t>
+  </si>
+  <si>
+    <t>上传文件图片</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够上传本地已存在的图片来进行检测，以便于更便捷地进行食物图片热量检测。</t>
+  </si>
+  <si>
+    <t>上传拍照图片</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够上传现场拍照得到的图片来进行检测，以便于更便捷地进行食物图片热量检测。</t>
+  </si>
+  <si>
+    <t>提供饮食知识</t>
+  </si>
+  <si>
+    <t>作为一名对饮食有追求的人士，我希望能够学习到关于饮食的知识，以便于让自己吃的更健康合理。</t>
+  </si>
+  <si>
+    <t>正能量文章</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望看到减肥的正能量文章，以让我有减肥的动力。</t>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望识别热量与成分后我可以评价这次识别并提出意见，以便于让这项功能更加完善、提高我之后的用户体验。</t>
+  </si>
+  <si>
+    <t>识别的反馈</t>
+  </si>
+  <si>
+    <t>作为一名开发者，我希望识别的食物如果偏差较大，能有用户的反馈，以便于改进软件。</t>
+  </si>
+  <si>
+    <t>食物的食谱</t>
+  </si>
+  <si>
+    <t>作为一名不怎么了解菜的人，我希望能知道一些家常菜的食谱，以便于我可以知道食物原材料。</t>
+  </si>
+  <si>
+    <t>推荐补钙的食物</t>
+  </si>
+  <si>
+    <t>作为一个缺钙的人，我希望知道一些补钙的食物，以便于我的身体健康。</t>
+  </si>
+  <si>
+    <t>推荐有利于孩子长个的饮食</t>
+  </si>
+  <si>
+    <t>作为不算高的家长，我希望我的孩子可以通过饮食，以便于孩子可以长的更高一些</t>
   </si>
 </sst>
 </file>
@@ -135,7 +207,7 @@
     <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +248,28 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -288,7 +382,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +395,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -317,74 +423,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,7 +442,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -659,19 +697,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="123.25" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="123.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="74.400000000000006">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -699,7 +737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -713,7 +751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -727,7 +765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -741,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -755,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -769,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -783,7 +821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -797,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -811,7 +849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -825,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -837,6 +875,174 @@
       </c>
       <c r="D12">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
